--- a/stock_historical_data/1mo/HLEGLAS.NS.xlsx
+++ b/stock_historical_data/1mo/HLEGLAS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B2" t="n">
-        <v>398.2000122070312</v>
+        <v>348.5469577550517</v>
       </c>
       <c r="C2" t="n">
-        <v>590.4400024414062</v>
+        <v>421.0367808778972</v>
       </c>
       <c r="D2" t="n">
-        <v>396.2000122070312</v>
+        <v>348.5469577550517</v>
       </c>
       <c r="E2" t="n">
-        <v>457.3299865722656</v>
-      </c>
-      <c r="F2" t="n">
-        <v>455.3806762695312</v>
-      </c>
+        <v>395.8143005371094</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1684635</v>
+        <v>153690</v>
       </c>
       <c r="H2" t="n">
         <v>2021</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B3" t="n">
-        <v>468</v>
+        <v>398.2000122070312</v>
       </c>
       <c r="C3" t="n">
-        <v>529.6699829101562</v>
+        <v>590.4400024414062</v>
       </c>
       <c r="D3" t="n">
-        <v>433.1499938964844</v>
+        <v>396.2000122070312</v>
       </c>
       <c r="E3" t="n">
-        <v>522.6599731445312</v>
+        <v>457.3299865722656</v>
       </c>
       <c r="F3" t="n">
-        <v>520.4321899414062</v>
+        <v>455.3806762695312</v>
       </c>
       <c r="G3" t="n">
-        <v>870570</v>
+        <v>1684635</v>
       </c>
       <c r="H3" t="n">
         <v>2021</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B4" t="n">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="C4" t="n">
-        <v>704</v>
+        <v>529.6699829101562</v>
       </c>
       <c r="D4" t="n">
-        <v>504</v>
+        <v>433.1499938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>652.0499877929688</v>
+        <v>522.6599731445312</v>
       </c>
       <c r="F4" t="n">
-        <v>649.2706909179688</v>
+        <v>520.4321899414062</v>
       </c>
       <c r="G4" t="n">
-        <v>2234880</v>
+        <v>870570</v>
       </c>
       <c r="H4" t="n">
         <v>2021</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B5" t="n">
-        <v>674.7999877929688</v>
+        <v>524</v>
       </c>
       <c r="C5" t="n">
-        <v>758.3900146484375</v>
+        <v>704</v>
       </c>
       <c r="D5" t="n">
-        <v>632.010009765625</v>
+        <v>504</v>
       </c>
       <c r="E5" t="n">
-        <v>697.219970703125</v>
+        <v>652.0499877929688</v>
       </c>
       <c r="F5" t="n">
-        <v>694.2481689453125</v>
+        <v>649.2706909179688</v>
       </c>
       <c r="G5" t="n">
-        <v>1129090</v>
+        <v>2234880</v>
       </c>
       <c r="H5" t="n">
         <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B6" t="n">
-        <v>702.97998046875</v>
+        <v>674.7999877929688</v>
       </c>
       <c r="C6" t="n">
-        <v>734.4000244140625</v>
+        <v>758.3900146484375</v>
       </c>
       <c r="D6" t="n">
-        <v>672.2000122070312</v>
+        <v>632.010009765625</v>
       </c>
       <c r="E6" t="n">
-        <v>688.469970703125</v>
+        <v>697.219970703125</v>
       </c>
       <c r="F6" t="n">
-        <v>685.5354614257812</v>
+        <v>694.2481689453125</v>
       </c>
       <c r="G6" t="n">
-        <v>548735</v>
+        <v>1129090</v>
       </c>
       <c r="H6" t="n">
         <v>2021</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B7" t="n">
-        <v>697.7999877929688</v>
+        <v>702.97998046875</v>
       </c>
       <c r="C7" t="n">
-        <v>898.9000244140625</v>
+        <v>734.4000244140625</v>
       </c>
       <c r="D7" t="n">
-        <v>590</v>
+        <v>672.2000122070312</v>
       </c>
       <c r="E7" t="n">
-        <v>886.989990234375</v>
+        <v>688.469970703125</v>
       </c>
       <c r="F7" t="n">
-        <v>883.2092895507812</v>
+        <v>685.5354614257812</v>
       </c>
       <c r="G7" t="n">
-        <v>2363520</v>
+        <v>548735</v>
       </c>
       <c r="H7" t="n">
         <v>2021</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B8" t="n">
-        <v>886.9600219726562</v>
+        <v>697.7999877929688</v>
       </c>
       <c r="C8" t="n">
-        <v>1350</v>
+        <v>898.9000244140625</v>
       </c>
       <c r="D8" t="n">
-        <v>851.030029296875</v>
+        <v>590</v>
       </c>
       <c r="E8" t="n">
-        <v>1300.119995117188</v>
+        <v>886.989990234375</v>
       </c>
       <c r="F8" t="n">
-        <v>1295.80908203125</v>
+        <v>883.2092895507812</v>
       </c>
       <c r="G8" t="n">
-        <v>5439315</v>
+        <v>2363520</v>
       </c>
       <c r="H8" t="n">
         <v>2021</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B9" t="n">
-        <v>1290.400024414062</v>
+        <v>886.9600219726562</v>
       </c>
       <c r="C9" t="n">
-        <v>1510</v>
+        <v>1350</v>
       </c>
       <c r="D9" t="n">
-        <v>1180</v>
+        <v>851.030029296875</v>
       </c>
       <c r="E9" t="n">
-        <v>1293.609985351562</v>
+        <v>1300.119995117188</v>
       </c>
       <c r="F9" t="n">
-        <v>1289.320678710938</v>
+        <v>1295.80908203125</v>
       </c>
       <c r="G9" t="n">
-        <v>2789995</v>
+        <v>5439315</v>
       </c>
       <c r="H9" t="n">
         <v>2021</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B10" t="n">
-        <v>1319.800048828125</v>
+        <v>1290.400024414062</v>
       </c>
       <c r="C10" t="n">
-        <v>1430</v>
+        <v>1510</v>
       </c>
       <c r="D10" t="n">
-        <v>1020.030029296875</v>
+        <v>1180</v>
       </c>
       <c r="E10" t="n">
-        <v>1183.77001953125</v>
+        <v>1293.609985351562</v>
       </c>
       <c r="F10" t="n">
-        <v>1179.844848632812</v>
+        <v>1289.320678710938</v>
       </c>
       <c r="G10" t="n">
-        <v>1536930</v>
+        <v>2789995</v>
       </c>
       <c r="H10" t="n">
         <v>2021</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B11" t="n">
-        <v>1184</v>
+        <v>1319.800048828125</v>
       </c>
       <c r="C11" t="n">
-        <v>1261</v>
+        <v>1430</v>
       </c>
       <c r="D11" t="n">
-        <v>1103.030029296875</v>
+        <v>1020.030029296875</v>
       </c>
       <c r="E11" t="n">
-        <v>1168.880004882812</v>
+        <v>1183.77001953125</v>
       </c>
       <c r="F11" t="n">
-        <v>1165.004272460938</v>
+        <v>1179.844848632812</v>
       </c>
       <c r="G11" t="n">
-        <v>875005</v>
+        <v>1536930</v>
       </c>
       <c r="H11" t="n">
         <v>2021</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B12" t="n">
-        <v>1175.77001953125</v>
+        <v>1184</v>
       </c>
       <c r="C12" t="n">
-        <v>1347.050048828125</v>
+        <v>1261</v>
       </c>
       <c r="D12" t="n">
-        <v>1145.050048828125</v>
+        <v>1103.030029296875</v>
       </c>
       <c r="E12" t="n">
-        <v>1299.400024414062</v>
+        <v>1168.880004882812</v>
       </c>
       <c r="F12" t="n">
-        <v>1295.091552734375</v>
+        <v>1165.004272460938</v>
       </c>
       <c r="G12" t="n">
-        <v>1221140</v>
+        <v>875005</v>
       </c>
       <c r="H12" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B13" t="n">
-        <v>1309.800048828125</v>
+        <v>1175.77001953125</v>
       </c>
       <c r="C13" t="n">
-        <v>1340</v>
+        <v>1347.050048828125</v>
       </c>
       <c r="D13" t="n">
-        <v>980</v>
+        <v>1145.050048828125</v>
       </c>
       <c r="E13" t="n">
-        <v>1125.339965820312</v>
+        <v>1299.400024414062</v>
       </c>
       <c r="F13" t="n">
-        <v>1121.608520507812</v>
+        <v>1295.091552734375</v>
       </c>
       <c r="G13" t="n">
-        <v>988770</v>
+        <v>1221140</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B14" t="n">
+        <v>1309.800048828125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D14" t="n">
+        <v>980</v>
+      </c>
+      <c r="E14" t="n">
         <v>1125.339965820312</v>
       </c>
-      <c r="C14" t="n">
-        <v>1179.800048828125</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1045</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1089.180053710938</v>
-      </c>
       <c r="F14" t="n">
-        <v>1085.568603515625</v>
+        <v>1121.608520507812</v>
       </c>
       <c r="G14" t="n">
-        <v>838915</v>
+        <v>988770</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B15" t="n">
-        <v>1099.599975585938</v>
+        <v>1125.339965820312</v>
       </c>
       <c r="C15" t="n">
-        <v>1179.599975585938</v>
+        <v>1179.800048828125</v>
       </c>
       <c r="D15" t="n">
-        <v>900.219970703125</v>
+        <v>1045</v>
       </c>
       <c r="E15" t="n">
-        <v>928.3699951171875</v>
+        <v>1089.180053710938</v>
       </c>
       <c r="F15" t="n">
-        <v>925.291748046875</v>
+        <v>1085.568603515625</v>
       </c>
       <c r="G15" t="n">
-        <v>1092615</v>
+        <v>838915</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B16" t="n">
-        <v>920</v>
+        <v>1099.599975585938</v>
       </c>
       <c r="C16" t="n">
-        <v>941.2000122070312</v>
+        <v>1179.599975585938</v>
       </c>
       <c r="D16" t="n">
-        <v>643</v>
+        <v>900.219970703125</v>
       </c>
       <c r="E16" t="n">
-        <v>687.4299926757812</v>
+        <v>928.3699951171875</v>
       </c>
       <c r="F16" t="n">
-        <v>685.150634765625</v>
+        <v>925.291748046875</v>
       </c>
       <c r="G16" t="n">
-        <v>1996935</v>
+        <v>1092615</v>
       </c>
       <c r="H16" t="n">
         <v>2022</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B17" t="n">
-        <v>694</v>
+        <v>920</v>
       </c>
       <c r="C17" t="n">
-        <v>709.7999877929688</v>
+        <v>941.2000122070312</v>
       </c>
       <c r="D17" t="n">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="E17" t="n">
-        <v>659.0399780273438</v>
+        <v>687.4299926757812</v>
       </c>
       <c r="F17" t="n">
-        <v>656.854736328125</v>
+        <v>685.150634765625</v>
       </c>
       <c r="G17" t="n">
-        <v>797050</v>
+        <v>1996935</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B18" t="n">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="C18" t="n">
-        <v>689.77001953125</v>
+        <v>709.7999877929688</v>
       </c>
       <c r="D18" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E18" t="n">
-        <v>619.719970703125</v>
+        <v>659.0399780273438</v>
       </c>
       <c r="F18" t="n">
-        <v>617.6651000976562</v>
+        <v>656.854736328125</v>
       </c>
       <c r="G18" t="n">
-        <v>820155</v>
+        <v>797050</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B19" t="n">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="C19" t="n">
-        <v>773</v>
+        <v>689.77001953125</v>
       </c>
       <c r="D19" t="n">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="E19" t="n">
-        <v>708.3599853515625</v>
+        <v>619.719970703125</v>
       </c>
       <c r="F19" t="n">
-        <v>706.01123046875</v>
+        <v>617.6651000976562</v>
       </c>
       <c r="G19" t="n">
-        <v>5542340</v>
+        <v>820155</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B20" t="n">
-        <v>716.52001953125</v>
+        <v>635</v>
       </c>
       <c r="C20" t="n">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="D20" t="n">
-        <v>676.2100219726562</v>
+        <v>618</v>
       </c>
       <c r="E20" t="n">
-        <v>692.969970703125</v>
+        <v>708.3599853515625</v>
       </c>
       <c r="F20" t="n">
-        <v>691.65478515625</v>
+        <v>706.01123046875</v>
       </c>
       <c r="G20" t="n">
-        <v>2584435</v>
+        <v>5542340</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B21" t="n">
-        <v>693.2000122070312</v>
+        <v>716.52001953125</v>
       </c>
       <c r="C21" t="n">
-        <v>764.8499755859375</v>
+        <v>815</v>
       </c>
       <c r="D21" t="n">
-        <v>646</v>
+        <v>676.2100219726562</v>
       </c>
       <c r="E21" t="n">
-        <v>658.7000122070312</v>
+        <v>692.969970703125</v>
       </c>
       <c r="F21" t="n">
-        <v>657.4498901367188</v>
+        <v>691.65478515625</v>
       </c>
       <c r="G21" t="n">
-        <v>2078497</v>
+        <v>2584435</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B22" t="n">
-        <v>667</v>
+        <v>693.2000122070312</v>
       </c>
       <c r="C22" t="n">
-        <v>724.9000244140625</v>
+        <v>764.8499755859375</v>
       </c>
       <c r="D22" t="n">
-        <v>628.0999755859375</v>
+        <v>646</v>
       </c>
       <c r="E22" t="n">
-        <v>636.75</v>
+        <v>658.7000122070312</v>
       </c>
       <c r="F22" t="n">
-        <v>635.54150390625</v>
+        <v>657.4498901367188</v>
       </c>
       <c r="G22" t="n">
-        <v>560712</v>
+        <v>2078497</v>
       </c>
       <c r="H22" t="n">
         <v>2022</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B23" t="n">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="C23" t="n">
-        <v>707.7000122070312</v>
+        <v>724.9000244140625</v>
       </c>
       <c r="D23" t="n">
-        <v>589.0999755859375</v>
+        <v>628.0999755859375</v>
       </c>
       <c r="E23" t="n">
-        <v>664.4500122070312</v>
+        <v>636.75</v>
       </c>
       <c r="F23" t="n">
-        <v>663.18896484375</v>
+        <v>635.54150390625</v>
       </c>
       <c r="G23" t="n">
-        <v>1169661</v>
+        <v>560712</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B24" t="n">
-        <v>668.7999877929688</v>
+        <v>638</v>
       </c>
       <c r="C24" t="n">
-        <v>670</v>
+        <v>707.7000122070312</v>
       </c>
       <c r="D24" t="n">
-        <v>590.5</v>
+        <v>589.0999755859375</v>
       </c>
       <c r="E24" t="n">
-        <v>606.0999755859375</v>
+        <v>664.4500122070312</v>
       </c>
       <c r="F24" t="n">
-        <v>604.9496459960938</v>
+        <v>663.18896484375</v>
       </c>
       <c r="G24" t="n">
-        <v>489866</v>
+        <v>1169661</v>
       </c>
       <c r="H24" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,89 +1732,89 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B25" t="n">
-        <v>610</v>
+        <v>668.7999877929688</v>
       </c>
       <c r="C25" t="n">
-        <v>614.9000244140625</v>
+        <v>670</v>
       </c>
       <c r="D25" t="n">
-        <v>511</v>
+        <v>590.5</v>
       </c>
       <c r="E25" t="n">
-        <v>515.9500122070312</v>
+        <v>606.0999755859375</v>
       </c>
       <c r="F25" t="n">
-        <v>514.9708251953125</v>
+        <v>604.9496459960938</v>
       </c>
       <c r="G25" t="n">
-        <v>622277</v>
+        <v>489866</v>
       </c>
       <c r="H25" t="n">
         <v>2023</v>
       </c>
       <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>52</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B26" t="n">
-        <v>523.6500244140625</v>
+        <v>610</v>
       </c>
       <c r="C26" t="n">
-        <v>544.8499755859375</v>
+        <v>614.9000244140625</v>
       </c>
       <c r="D26" t="n">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="E26" t="n">
-        <v>504.7999877929688</v>
+        <v>515.9500122070312</v>
       </c>
       <c r="F26" t="n">
-        <v>503.8419494628906</v>
+        <v>514.9708251953125</v>
       </c>
       <c r="G26" t="n">
-        <v>2083515</v>
+        <v>622277</v>
       </c>
       <c r="H26" t="n">
         <v>2023</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B27" t="n">
-        <v>507</v>
+        <v>523.6500244140625</v>
       </c>
       <c r="C27" t="n">
-        <v>630</v>
+        <v>544.8499755859375</v>
       </c>
       <c r="D27" t="n">
-        <v>505.1000061035156</v>
+        <v>465</v>
       </c>
       <c r="E27" t="n">
-        <v>594.3499755859375</v>
+        <v>504.7999877929688</v>
       </c>
       <c r="F27" t="n">
-        <v>593.2219848632812</v>
+        <v>503.8419494628906</v>
       </c>
       <c r="G27" t="n">
-        <v>3278095</v>
+        <v>2083515</v>
       </c>
       <c r="H27" t="n">
         <v>2023</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B28" t="n">
+        <v>507</v>
+      </c>
+      <c r="C28" t="n">
+        <v>630</v>
+      </c>
+      <c r="D28" t="n">
+        <v>505.1000061035156</v>
+      </c>
+      <c r="E28" t="n">
         <v>594.3499755859375</v>
       </c>
-      <c r="C28" t="n">
-        <v>649.2000122070312</v>
-      </c>
-      <c r="D28" t="n">
-        <v>593</v>
-      </c>
-      <c r="E28" t="n">
-        <v>617.75</v>
-      </c>
       <c r="F28" t="n">
-        <v>616.5775756835938</v>
+        <v>593.2219848632812</v>
       </c>
       <c r="G28" t="n">
-        <v>2101516</v>
+        <v>3278095</v>
       </c>
       <c r="H28" t="n">
         <v>2023</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B29" t="n">
-        <v>619</v>
+        <v>594.3499755859375</v>
       </c>
       <c r="C29" t="n">
-        <v>698.4000244140625</v>
+        <v>649.2000122070312</v>
       </c>
       <c r="D29" t="n">
-        <v>614.75</v>
+        <v>593</v>
       </c>
       <c r="E29" t="n">
-        <v>648.5999755859375</v>
+        <v>617.75</v>
       </c>
       <c r="F29" t="n">
-        <v>647.3690185546875</v>
+        <v>616.5775756835938</v>
       </c>
       <c r="G29" t="n">
-        <v>2264070</v>
+        <v>2101516</v>
       </c>
       <c r="H29" t="n">
         <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B30" t="n">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="C30" t="n">
-        <v>694.9500122070312</v>
+        <v>698.4000244140625</v>
       </c>
       <c r="D30" t="n">
-        <v>635</v>
+        <v>614.75</v>
       </c>
       <c r="E30" t="n">
-        <v>639.5</v>
+        <v>648.5999755859375</v>
       </c>
       <c r="F30" t="n">
-        <v>638.2863159179688</v>
+        <v>647.3690185546875</v>
       </c>
       <c r="G30" t="n">
-        <v>1596973</v>
+        <v>2264070</v>
       </c>
       <c r="H30" t="n">
         <v>2023</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,45 +2041,45 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B31" t="n">
-        <v>642.5</v>
+        <v>656</v>
       </c>
       <c r="C31" t="n">
-        <v>652.9500122070312</v>
+        <v>694.9500122070312</v>
       </c>
       <c r="D31" t="n">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="E31" t="n">
-        <v>583.0499877929688</v>
+        <v>639.5</v>
       </c>
       <c r="F31" t="n">
-        <v>581.9434204101562</v>
+        <v>638.2863159179688</v>
       </c>
       <c r="G31" t="n">
-        <v>1486295</v>
+        <v>1596973</v>
       </c>
       <c r="H31" t="n">
         <v>2023</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B32" t="n">
-        <v>583.5</v>
+        <v>642.5</v>
       </c>
       <c r="C32" t="n">
-        <v>605.8499755859375</v>
+        <v>652.9500122070312</v>
       </c>
       <c r="D32" t="n">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="E32" t="n">
-        <v>560.9500122070312</v>
+        <v>583.0499877929688</v>
       </c>
       <c r="F32" t="n">
-        <v>559.8853759765625</v>
+        <v>581.9434204101562</v>
       </c>
       <c r="G32" t="n">
-        <v>7628230</v>
+        <v>1486295</v>
       </c>
       <c r="H32" t="n">
         <v>2023</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B33" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>605.8499755859375</v>
+      </c>
+      <c r="D33" t="n">
+        <v>501</v>
+      </c>
+      <c r="E33" t="n">
         <v>560.9500122070312</v>
       </c>
-      <c r="C33" t="n">
-        <v>568.7999877929688</v>
-      </c>
-      <c r="D33" t="n">
-        <v>493.1499938964844</v>
-      </c>
-      <c r="E33" t="n">
-        <v>524.2999877929688</v>
-      </c>
       <c r="F33" t="n">
-        <v>524.2999877929688</v>
+        <v>559.8853759765625</v>
       </c>
       <c r="G33" t="n">
-        <v>1922134</v>
+        <v>7628230</v>
       </c>
       <c r="H33" t="n">
         <v>2023</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,45 +2200,45 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B34" t="n">
-        <v>526</v>
+        <v>560.9500122070312</v>
       </c>
       <c r="C34" t="n">
-        <v>556</v>
+        <v>568.7999877929688</v>
       </c>
       <c r="D34" t="n">
-        <v>502</v>
+        <v>493.1499938964844</v>
       </c>
       <c r="E34" t="n">
-        <v>535.6500244140625</v>
+        <v>524.2999877929688</v>
       </c>
       <c r="F34" t="n">
-        <v>535.6500244140625</v>
+        <v>524.2999877929688</v>
       </c>
       <c r="G34" t="n">
-        <v>1177394</v>
+        <v>1922134</v>
       </c>
       <c r="H34" t="n">
         <v>2023</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,45 +2253,45 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B35" t="n">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C35" t="n">
-        <v>553.2000122070312</v>
+        <v>556</v>
       </c>
       <c r="D35" t="n">
-        <v>516.2999877929688</v>
+        <v>502</v>
       </c>
       <c r="E35" t="n">
-        <v>539.9000244140625</v>
+        <v>535.6500244140625</v>
       </c>
       <c r="F35" t="n">
-        <v>539.9000244140625</v>
+        <v>535.6500244140625</v>
       </c>
       <c r="G35" t="n">
-        <v>1225912</v>
+        <v>1177394</v>
       </c>
       <c r="H35" t="n">
         <v>2023</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B36" t="n">
-        <v>543.5</v>
+        <v>540</v>
       </c>
       <c r="C36" t="n">
-        <v>575</v>
+        <v>553.2000122070312</v>
       </c>
       <c r="D36" t="n">
-        <v>529.3499755859375</v>
+        <v>516.2999877929688</v>
       </c>
       <c r="E36" t="n">
-        <v>539.2999877929688</v>
+        <v>539.9000244140625</v>
       </c>
       <c r="F36" t="n">
-        <v>539.2999877929688</v>
+        <v>539.9000244140625</v>
       </c>
       <c r="G36" t="n">
-        <v>1899746</v>
+        <v>1225912</v>
       </c>
       <c r="H36" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B37" t="n">
-        <v>545</v>
+        <v>543.5</v>
       </c>
       <c r="C37" t="n">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="D37" t="n">
-        <v>493.5</v>
+        <v>529.3499755859375</v>
       </c>
       <c r="E37" t="n">
-        <v>495.0499877929688</v>
+        <v>539.2999877929688</v>
       </c>
       <c r="F37" t="n">
-        <v>495.0499877929688</v>
+        <v>539.2999877929688</v>
       </c>
       <c r="G37" t="n">
-        <v>1051863</v>
+        <v>1899746</v>
       </c>
       <c r="H37" t="n">
         <v>2024</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,45 +2412,45 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B38" t="n">
-        <v>499.9500122070312</v>
+        <v>545</v>
       </c>
       <c r="C38" t="n">
-        <v>503.8500061035156</v>
+        <v>545</v>
       </c>
       <c r="D38" t="n">
-        <v>404.9500122070312</v>
+        <v>493.5</v>
       </c>
       <c r="E38" t="n">
-        <v>408.2999877929688</v>
+        <v>495.0499877929688</v>
       </c>
       <c r="F38" t="n">
-        <v>408.2999877929688</v>
+        <v>495.0499877929688</v>
       </c>
       <c r="G38" t="n">
-        <v>3173331</v>
+        <v>1051863</v>
       </c>
       <c r="H38" t="n">
         <v>2024</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2482,36 +2474,36 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B39" t="n">
-        <v>415</v>
+        <v>499.9500122070312</v>
       </c>
       <c r="C39" t="n">
-        <v>479.7999877929688</v>
+        <v>503.8500061035156</v>
       </c>
       <c r="D39" t="n">
-        <v>413</v>
+        <v>404.9500122070312</v>
       </c>
       <c r="E39" t="n">
-        <v>452.1000061035156</v>
+        <v>408.2999877929688</v>
       </c>
       <c r="F39" t="n">
-        <v>452.1000061035156</v>
+        <v>408.2999877929688</v>
       </c>
       <c r="G39" t="n">
-        <v>2632250</v>
+        <v>3173331</v>
       </c>
       <c r="H39" t="n">
         <v>2024</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B40" t="n">
-        <v>452.1000061035156</v>
+        <v>415</v>
       </c>
       <c r="C40" t="n">
-        <v>458</v>
+        <v>479.7999877929688</v>
       </c>
       <c r="D40" t="n">
         <v>413</v>
       </c>
       <c r="E40" t="n">
-        <v>414.8999938964844</v>
+        <v>452.1000061035156</v>
       </c>
       <c r="F40" t="n">
-        <v>414.8999938964844</v>
+        <v>452.1000061035156</v>
       </c>
       <c r="G40" t="n">
-        <v>746454</v>
+        <v>2632250</v>
       </c>
       <c r="H40" t="n">
         <v>2024</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2588,61 +2580,519 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B41" t="n">
-        <v>429</v>
+        <v>452.1000061035156</v>
       </c>
       <c r="C41" t="n">
-        <v>450.2000122070312</v>
+        <v>458</v>
       </c>
       <c r="D41" t="n">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="E41" t="n">
-        <v>446</v>
+        <v>414.8999938964844</v>
       </c>
       <c r="F41" t="n">
-        <v>446</v>
+        <v>414.8999938964844</v>
       </c>
       <c r="G41" t="n">
-        <v>611449</v>
+        <v>746454</v>
       </c>
       <c r="H41" t="n">
         <v>2024</v>
       </c>
       <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>18</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B42" t="n">
+        <v>429</v>
+      </c>
+      <c r="C42" t="n">
+        <v>450.2000122070312</v>
+      </c>
+      <c r="D42" t="n">
+        <v>400</v>
+      </c>
+      <c r="E42" t="n">
+        <v>446</v>
+      </c>
+      <c r="F42" t="n">
+        <v>446</v>
+      </c>
+      <c r="G42" t="n">
+        <v>611449</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
         <v>6</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>22</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B43" t="n">
+        <v>487.5613908602045</v>
+      </c>
+      <c r="C43" t="n">
+        <v>518.4765436205855</v>
+      </c>
+      <c r="D43" t="n">
+        <v>414.9108473064549</v>
+      </c>
+      <c r="E43" t="n">
+        <v>439.1941833496094</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>2958096</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>27</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B44" t="n">
+        <v>438.7952748206654</v>
+      </c>
+      <c r="C44" t="n">
+        <v>443.6818524761824</v>
+      </c>
+      <c r="D44" t="n">
+        <v>396.8105390294294</v>
+      </c>
+      <c r="E44" t="n">
+        <v>408.3787841796875</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1810582</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>31</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B45" t="n">
+        <v>411.3207108023499</v>
+      </c>
+      <c r="C45" t="n">
+        <v>426.6286576612224</v>
+      </c>
+      <c r="D45" t="n">
+        <v>395.7135366586984</v>
+      </c>
+      <c r="E45" t="n">
+        <v>400.4505310058594</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2196462</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>35</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B46" t="n">
+        <v>401.5499877929688</v>
+      </c>
+      <c r="C46" t="n">
+        <v>406.3999938964844</v>
+      </c>
+      <c r="D46" t="n">
+        <v>350</v>
+      </c>
+      <c r="E46" t="n">
+        <v>370.1000061035156</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>1196607</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B47" t="n">
+        <v>374</v>
+      </c>
+      <c r="C47" t="n">
+        <v>427.9500122070312</v>
+      </c>
+      <c r="D47" t="n">
+        <v>350</v>
+      </c>
+      <c r="E47" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>4803625</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>44</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B48" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="C48" t="n">
+        <v>423.9500122070312</v>
+      </c>
+      <c r="D48" t="n">
+        <v>363.1000061035156</v>
+      </c>
+      <c r="E48" t="n">
+        <v>369.1000061035156</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1495361</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>48</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B49" t="n">
+        <v>365.7000122070312</v>
+      </c>
+      <c r="C49" t="n">
+        <v>383</v>
+      </c>
+      <c r="D49" t="n">
+        <v>286</v>
+      </c>
+      <c r="E49" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>1324358</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B50" t="n">
+        <v>317</v>
+      </c>
+      <c r="C50" t="n">
+        <v>344.75</v>
+      </c>
+      <c r="D50" t="n">
+        <v>241.0500030517578</v>
+      </c>
+      <c r="E50" t="n">
+        <v>243.0500030517578</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1114566</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B51" t="n">
+        <v>243.5500030517578</v>
+      </c>
+      <c r="C51" t="n">
+        <v>264</v>
+      </c>
+      <c r="D51" t="n">
+        <v>217.8300018310547</v>
+      </c>
+      <c r="E51" t="n">
+        <v>250.3899993896484</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>2251277</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
